--- a/Password Cracking Results.xlsx
+++ b/Password Cracking Results.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
+  <si>
+    <t xml:space="preserve">NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">your_name</t>
+  </si>
   <si>
     <t xml:space="preserve">Test Case</t>
   </si>
@@ -174,7 +180,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -198,6 +204,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Garamond"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Garamond"/>
       <family val="1"/>
       <charset val="1"/>
@@ -258,12 +277,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -386,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,31 +420,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -435,7 +468,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -451,55 +484,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,10 +613,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,290 +629,298 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="29.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="19.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="E12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="G17" s="0"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
@@ -888,6 +929,10 @@
       <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="20"/>
       <c r="G18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
@@ -897,18 +942,6 @@
       <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>6</v>
-      </c>
       <c r="G19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
@@ -918,22 +951,17 @@
       <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="C20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="24" t="n">
-        <f aca="false">G6</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="25" t="n">
-        <f aca="false">G10</f>
-        <v>0</v>
+      <c r="E20" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
@@ -944,20 +972,20 @@
       <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="26" t="n">
+        <f aca="false">G7</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="27" t="n">
-        <f aca="false">G7</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="27" t="n">
         <f aca="false">G11</f>
         <v>0</v>
       </c>
@@ -970,20 +998,20 @@
       <c r="M21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="C22" s="29" t="n">
+        <f aca="false">G8</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="24" t="n">
-        <f aca="false">G8</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="25" t="n">
+      <c r="E22" s="30" t="n">
         <f aca="false">G12</f>
         <v>0</v>
       </c>
@@ -996,6 +1024,23 @@
       <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="26" t="n">
+        <f aca="false">G9</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="27" t="n">
+        <f aca="false">G13</f>
+        <v>0</v>
+      </c>
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
@@ -1005,10 +1050,7 @@
       <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18"/>
+      <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="0"/>
@@ -1017,6 +1059,10 @@
       <c r="M24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="20"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
@@ -1025,24 +1071,6 @@
       <c r="M25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>6</v>
-      </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
@@ -1051,30 +1079,23 @@
       <c r="M26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="C27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="24" t="n">
-        <f aca="false">F2</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="24" t="n">
-        <f aca="false">G2</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="24" t="n">
-        <f aca="false">F4</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="25" t="n">
-        <f aca="false">G4</f>
-        <v>0</v>
+      <c r="F27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -1084,28 +1105,28 @@
       <c r="M27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="C28" s="26" t="n">
+        <f aca="false">F3</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="26" t="n">
+        <f aca="false">G3</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="27" t="n">
-        <f aca="false">F3</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="27" t="n">
-        <f aca="false">G3</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="27" t="n">
+      <c r="F28" s="26" t="n">
         <f aca="false">F5</f>
         <v>0</v>
       </c>
-      <c r="G28" s="28" t="n">
+      <c r="G28" s="27" t="n">
         <f aca="false">G5</f>
         <v>0</v>
       </c>
@@ -1117,29 +1138,29 @@
       <c r="M28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="24" t="n">
+      <c r="C29" s="29" t="n">
+        <f aca="false">F4</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="29" t="n">
+        <f aca="false">G4</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="29" t="n">
         <f aca="false">F6</f>
         <v>0</v>
       </c>
-      <c r="D29" s="24" t="n">
+      <c r="G29" s="30" t="n">
         <f aca="false">G6</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="24" t="n">
-        <f aca="false">F8</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="25" t="n">
-        <f aca="false">G8</f>
         <v>0</v>
       </c>
       <c r="H29" s="0"/>
@@ -1150,28 +1171,28 @@
       <c r="M29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="27" t="n">
+      <c r="A30" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="26" t="n">
         <f aca="false">F7</f>
         <v>0</v>
       </c>
-      <c r="D30" s="27" t="n">
+      <c r="D30" s="26" t="n">
         <f aca="false">G7</f>
         <v>0</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="27" t="n">
+      <c r="E30" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="26" t="n">
         <f aca="false">F9</f>
         <v>0</v>
       </c>
-      <c r="G30" s="28" t="n">
+      <c r="G30" s="27" t="n">
         <f aca="false">G9</f>
         <v>0</v>
       </c>
@@ -1183,29 +1204,29 @@
       <c r="M30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="24" t="n">
+      <c r="B31" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="29" t="n">
+        <f aca="false">F8</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="29" t="n">
+        <f aca="false">G8</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="29" t="n">
         <f aca="false">F10</f>
         <v>0</v>
       </c>
-      <c r="D31" s="24" t="n">
+      <c r="G31" s="30" t="n">
         <f aca="false">G10</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="24" t="n">
-        <f aca="false">F12</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="25" t="n">
-        <f aca="false">G12</f>
         <v>0</v>
       </c>
       <c r="H31" s="0"/>
@@ -1216,6 +1237,31 @@
       <c r="M31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="26" t="n">
+        <f aca="false">F11</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="26" t="n">
+        <f aca="false">G11</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="26" t="n">
+        <f aca="false">F13</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="27" t="n">
+        <f aca="false">G13</f>
+        <v>0</v>
+      </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
@@ -1224,10 +1270,6 @@
       <c r="M32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="18"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
       <c r="J33" s="0"/>
@@ -1235,158 +1277,164 @@
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="19" t="s">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="C34" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="24" t="n">
-        <f aca="false">F2</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="24" t="n">
-        <f aca="false">G2</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="23" t="s">
+      <c r="C36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="26" t="n">
+        <f aca="false">F3</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="26" t="n">
+        <f aca="false">G3</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="26" t="n">
+        <f aca="false">F4</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="27" t="n">
+        <f aca="false">G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="24" t="n">
-        <f aca="false">F3</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="25" t="n">
-        <f aca="false">G3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="27" t="n">
-        <f aca="false">F4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="27" t="n">
-        <f aca="false">G4</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="27" t="n">
+      <c r="C38" s="29" t="n">
         <f aca="false">F5</f>
         <v>0</v>
       </c>
-      <c r="G37" s="28" t="n">
+      <c r="D38" s="29" t="n">
         <f aca="false">G5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="24" t="n">
+      <c r="E38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="29" t="n">
         <f aca="false">F6</f>
         <v>0</v>
       </c>
-      <c r="D38" s="24" t="n">
+      <c r="G38" s="30" t="n">
         <f aca="false">G6</f>
         <v>0</v>
       </c>
-      <c r="E38" s="23" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="26" t="n">
+        <f aca="false">F7</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="26" t="n">
+        <f aca="false">G7</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="26" t="n">
+        <f aca="false">F8</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="27" t="n">
+        <f aca="false">G8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="29" t="n">
+        <f aca="false">F9</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="29" t="n">
+        <f aca="false">G9</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="29" t="n">
+        <f aca="false">F10</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="30" t="n">
+        <f aca="false">G10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="24" t="n">
-        <f aca="false">F7</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="25" t="n">
-        <f aca="false">G7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="23" t="s">
+      <c r="C41" s="26" t="n">
+        <f aca="false">F11</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="26" t="n">
+        <f aca="false">G11</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="27" t="n">
-        <f aca="false">F8</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="27" t="n">
-        <f aca="false">G8</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="27" t="n">
-        <f aca="false">F9</f>
-        <v>0</v>
-      </c>
-      <c r="G39" s="28" t="n">
-        <f aca="false">G9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="24" t="n">
-        <f aca="false">F10</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="24" t="n">
-        <f aca="false">G10</f>
-        <v>0</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="24" t="n">
-        <f aca="false">F11</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="25" t="n">
-        <f aca="false">G11</f>
+      <c r="F41" s="26" t="n">
+        <f aca="false">F12</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="27" t="n">
+        <f aca="false">G12</f>
         <v>0</v>
       </c>
     </row>
